--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Team04_API_Guardians\git_Team04\team4_api_guardians\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Team04_API_Guardians\git_Team04\KalpanaRepo\api_guardians\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96105604-5AEF-4818-A1C4-E87234BD60AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9AA7D3-9C82-49DD-AF03-FDB1C2339919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97D18A69-7170-4542-86C9-C7E18D31EAF5}"/>
   </bookViews>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="211">
-  <si>
-    <t>EndPoint</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="244">
   <si>
     <t>Batch ID</t>
   </si>
@@ -198,15 +195,6 @@
     <t>roleId</t>
   </si>
   <si>
-    <t>userRoleStatus</t>
-  </si>
-  <si>
-    <t>userLoginEmail</t>
-  </si>
-  <si>
-    <t>loginStatus</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -228,33 +216,9 @@
     <t>/users/roleStatus</t>
   </si>
   <si>
-    <t>smith</t>
-  </si>
-  <si>
-    <t>test comments</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>www.linkedin.com</t>
-  </si>
-  <si>
-    <t>/users/</t>
-  </si>
-  <si>
     <t>userPhoneNumber</t>
   </si>
   <si>
-    <t>+91 7944540236</t>
-  </si>
-  <si>
-    <t>Ginny</t>
-  </si>
-  <si>
-    <t>abc4@gmail.com</t>
-  </si>
-  <si>
     <t>/login/forgotpassword/confirmEmail</t>
   </si>
   <si>
@@ -666,20 +630,155 @@
     <t>abc</t>
   </si>
   <si>
-    <t>/saveSkillMaster</t>
-  </si>
-  <si>
     <t>#$%^&amp;*()</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>userMiddleName</t>
+  </si>
+  <si>
+    <t>userRoleMaps</t>
+  </si>
+  <si>
+    <t>userLogin</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>Well Done</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Jakson</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/bc</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>[{"roleId":"R01","userRoleStatus":"Active"}]</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>[{"userLoginEmail":"abc@gmail.com",loginStatus":"Active",status:"Active"}]</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/matt</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Capes</t>
+  </si>
+  <si>
+    <t>[{"roleId":"R02","userRoleStatus":"Active"}]</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>[{"userLoginEmail":"toml@gmail.com",loginStatus":"Active",status:"Active"}]</t>
+  </si>
+  <si>
+    <t>[{"userLoginEmail":"paul@gmail.com",loginStatus":"Active",status:"Active"}]</t>
+  </si>
+  <si>
+    <t>/users</t>
+  </si>
+  <si>
+    <t>/users/{userId}</t>
+  </si>
+  <si>
+    <t>/roles</t>
+  </si>
+  <si>
+    <t>/users/roles</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/jerry</t>
+  </si>
+  <si>
+    <t>/users1/{userId}</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/SAm</t>
+  </si>
+  <si>
+    <t>[{"roleId":"R03","userRoleStatus":"Active"}]</t>
+  </si>
+  <si>
+    <t>[{"userLoginEmail":"samc@gmail.com",loginStatus":"Active",status:"Active"}]</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>/users/roleId/{userID}</t>
+  </si>
+  <si>
+    <t>adminStatus Updated</t>
+  </si>
+  <si>
+    <t>Ro1</t>
+  </si>
+  <si>
+    <t>/users/{userID}</t>
+  </si>
+  <si>
+    <t>/SaveSkillMaster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,18 +807,25 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -823,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -833,24 +939,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -860,9 +956,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1200,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D495E3D-B3D5-4AFB-9134-10A138B201AB}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,45 +1357,45 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
@@ -1266,19 +1405,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>405</v>
@@ -1287,40 +1426,40 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G5" s="1">
         <v>401</v>
@@ -1329,19 +1468,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
@@ -1351,19 +1490,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
@@ -1373,19 +1512,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1393,19 +1532,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1413,19 +1552,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5">
         <v>123456789</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1433,17 +1572,17 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1451,17 +1590,17 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1469,15 +1608,15 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1485,17 +1624,17 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1503,17 +1642,17 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1521,17 +1660,17 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1539,17 +1678,17 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1557,15 +1696,15 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1573,35 +1712,35 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1609,15 +1748,15 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1625,15 +1764,15 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1641,15 +1780,15 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1657,15 +1796,15 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1673,15 +1812,15 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1689,19 +1828,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
         <v>83</v>
       </c>
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" t="s">
-        <v>95</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1709,19 +1848,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1729,19 +1868,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1749,19 +1888,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1769,19 +1908,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1789,39 +1928,41 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1829,27 +1970,27 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>210</v>
+      <c r="A34" s="14" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1889,492 +2030,492 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="C5" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="D5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="D6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C7" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C8" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="F8" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C9" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="D9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C10" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="D10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B11" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="C11" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="D11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="A18" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="A19" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="A20" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="A21" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19">
+      <c r="A22" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18" t="s">
-        <v>207</v>
+      <c r="A23" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="A24" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2405,91 +2546,91 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="K1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>274</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <v>444</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>444</v>
@@ -2497,127 +2638,127 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="J6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="J7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E11">
         <v>555</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <v>555</v>
@@ -2625,36 +2766,36 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E13">
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <v>49</v>
@@ -2662,36 +2803,36 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B14">
         <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B15">
         <v>888</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>888</v>
@@ -2699,83 +2840,83 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B16">
         <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B17">
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B18">
         <v>2024</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G18">
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>2024</v>
@@ -2783,71 +2924,71 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B19">
         <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
         <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B20">
         <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E20">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B21">
         <v>98</v>
@@ -2856,160 +2997,160 @@
         <v>1234</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I21" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B22">
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G22">
         <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I22" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="J22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B23">
         <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I23" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B24">
         <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -3018,10 +3159,10 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3031,10 +3172,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA50047-0086-4722-99E0-3C1A8D205CF2}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3058,124 +3199,931 @@
     <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="K1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="M1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="R1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="S1" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="U1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="11">
+        <v>201</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="9" t="s">
+      <c r="N2" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="23">
+        <v>2162003254</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R2" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+    </row>
+    <row r="3" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="11">
+        <v>400</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" s="23">
+        <v>2162003254</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="R3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S3" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+    </row>
+    <row r="4" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="11">
+        <v>400</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" s="27">
+        <v>2162003254</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="11">
+        <v>200</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="27">
+        <v>200</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="27">
+        <v>404</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21">
+        <v>1000</v>
+      </c>
+      <c r="U7" s="21"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="27">
+        <v>200</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="27">
+        <v>200</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="10" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="27">
+        <v>200</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="O10" s="27">
+        <v>2162003254</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+    </row>
+    <row r="11" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="27">
+        <v>404</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="O11" s="27">
+        <v>2162003123</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="T11" s="21">
+        <v>1002</v>
+      </c>
+      <c r="U11" s="21"/>
+    </row>
+    <row r="12" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="27">
+        <v>200</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="O12" s="27">
+        <v>2162003254</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+    </row>
+    <row r="13" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="27">
+        <v>400</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="O13" s="27">
+        <v>2162003254</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="27">
+        <v>404</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="O14" s="27">
+        <v>2162003254</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="T14" s="21">
+        <v>1020</v>
+      </c>
+      <c r="U14" s="21"/>
+    </row>
+    <row r="15" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="27">
+        <v>400</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="27">
+        <v>2162003254</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="27">
+        <v>200</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="10"/>
+      <c r="B20" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="27">
+        <v>404</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21">
+        <v>4000</v>
+      </c>
+      <c r="U20" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{41567574-CE0D-4242-B0AC-351EE13002C2}"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{0ACF184D-641A-4C17-AE3E-848ABDC8DA3A}"/>
+    <hyperlink ref="L2" r:id="rId2" display="linkedin.com/in/sheetal-pangare" xr:uid="{E6D41617-43B7-4A78-83F8-31B008A1EC92}"/>
+    <hyperlink ref="S3" r:id="rId3" xr:uid="{AF8928A9-758A-42EB-99C1-25962161EB02}"/>
+    <hyperlink ref="S4" r:id="rId4" xr:uid="{83C1C524-77BF-495F-82AD-64C926F79270}"/>
+    <hyperlink ref="S10" r:id="rId5" xr:uid="{8D0B2AFA-80BB-4A50-A8F0-9C0C5810C91E}"/>
+    <hyperlink ref="S11" r:id="rId6" xr:uid="{724498D2-AE95-4115-BFA5-637082E08812}"/>
+    <hyperlink ref="S13" r:id="rId7" xr:uid="{941C18B3-7BF7-4096-BAD6-2428F5B74B54}"/>
+    <hyperlink ref="L12" r:id="rId8" display="linkedin.com/in/sheetal-pangare" xr:uid="{56A1ABA7-B1FF-42F7-A773-69A0EF1890E4}"/>
+    <hyperlink ref="S12" r:id="rId9" xr:uid="{DABED4C3-B650-4CEE-BEB3-AE30256DF006}"/>
+    <hyperlink ref="S14" r:id="rId10" xr:uid="{01B6C524-FF32-48F5-BE9C-110AE99E7C20}"/>
+    <hyperlink ref="S15" r:id="rId11" xr:uid="{FE1E644F-A882-47C6-94B0-BE980FC385D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3186,7 +4134,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,64 +4152,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>105</v>
+      <c r="H1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>15</v>
+      <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="17">
+        <v>95</v>
+      </c>
+      <c r="F2" s="11">
         <v>201</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
